--- a/biology/Histoire de la zoologie et de la botanique/Fran_Erjavec/Fran_Erjavec.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fran_Erjavec/Fran_Erjavec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fran Erjavec, né le 4 septembre 1834 à Laibach (Empire d'Autriche) et décédé le 12 janvier 1887 à Goritz (Autriche-Hongrie) était un écrivain et naturaliste carnolien.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de son père il est élevé par sa grand-mère car sa mère s'est remarié. Il passe du temps dans la nature, et observe à la piscine municipale les grenouilles, les salamandres et les punaises d'eau. À quinze ans, alors étudiant, il aide des scientifiques comme Ferdinand Jožef Schmidt ou Karel Dežman à rassembler des informations pour leurs travaux scientifiques. Il étudie la chimie et les sciences naturelles à Vienne.
 Il devient enseignant à Zagreb, où il reste onze ans. Il voyage beaucoup et parcourt presque toutes les villes slovènes, commence des collections scientifiques et contribue à la gestion de celles du musée national d'histoire naturelle. Il est notamment intéressé par la collecte d'escargots, d'insectes, de roches, observe la vie du peuple et écrit sur le folklore. Il traduit et adapte également beaucoup de documents de zoologie, minéralogie, chimie et sur l'anatomie et la physiologie.
